--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H2">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I2">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J2">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.981008402036879</v>
+        <v>10.25548833333333</v>
       </c>
       <c r="N2">
-        <v>9.981008402036879</v>
+        <v>30.766465</v>
       </c>
       <c r="O2">
-        <v>0.09921067745427756</v>
+        <v>0.09996462463766297</v>
       </c>
       <c r="P2">
-        <v>0.09921067745427756</v>
+        <v>0.09996462463766294</v>
       </c>
       <c r="Q2">
-        <v>73.39670222499319</v>
+        <v>9.124229344756113</v>
       </c>
       <c r="R2">
-        <v>73.39670222499319</v>
+        <v>82.11806410280501</v>
       </c>
       <c r="S2">
-        <v>0.08589259283158238</v>
+        <v>0.009323453588740134</v>
       </c>
       <c r="T2">
-        <v>0.08589259283158238</v>
+        <v>0.009323453588740128</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H3">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I3">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J3">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>74.6272523368922</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N3">
-        <v>74.6272523368922</v>
+        <v>223.948188</v>
       </c>
       <c r="O3">
-        <v>0.741790805364261</v>
+        <v>0.7276395436298834</v>
       </c>
       <c r="P3">
-        <v>0.741790805364261</v>
+        <v>0.7276395436298831</v>
       </c>
       <c r="Q3">
-        <v>548.7816458026929</v>
+        <v>66.41499530916401</v>
       </c>
       <c r="R3">
-        <v>548.7816458026929</v>
+        <v>597.734957782476</v>
       </c>
       <c r="S3">
-        <v>0.6422124840416251</v>
+        <v>0.06786514268377762</v>
       </c>
       <c r="T3">
-        <v>0.6422124840416251</v>
+        <v>0.06786514268377759</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H4">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I4">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J4">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.86400860188169</v>
+        <v>0.869824</v>
       </c>
       <c r="N4">
-        <v>0.86400860188169</v>
+        <v>2.609472</v>
       </c>
       <c r="O4">
-        <v>0.008588198232706882</v>
+        <v>0.008478546007235204</v>
       </c>
       <c r="P4">
-        <v>0.008588198232706882</v>
+        <v>0.008478546007235202</v>
       </c>
       <c r="Q4">
-        <v>6.353604717856121</v>
+        <v>0.7738757441493335</v>
       </c>
       <c r="R4">
-        <v>6.353604717856121</v>
+        <v>6.964881697344001</v>
       </c>
       <c r="S4">
-        <v>0.007435314755297063</v>
+        <v>0.000790773040813005</v>
       </c>
       <c r="T4">
-        <v>0.007435314755297063</v>
+        <v>0.0007907730408130047</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H5">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I5">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J5">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.520787431444503</v>
+        <v>0.6143926666666666</v>
       </c>
       <c r="N5">
-        <v>0.520787431444503</v>
+        <v>1.843178</v>
       </c>
       <c r="O5">
-        <v>0.005176598576225841</v>
+        <v>0.005988747713148011</v>
       </c>
       <c r="P5">
-        <v>0.005176598576225841</v>
+        <v>0.005988747713148009</v>
       </c>
       <c r="Q5">
-        <v>3.829681179353646</v>
+        <v>0.5466204451895555</v>
       </c>
       <c r="R5">
-        <v>3.829681179353646</v>
+        <v>4.919584006706</v>
       </c>
       <c r="S5">
-        <v>0.004481689725032157</v>
+        <v>0.0005585557046864779</v>
       </c>
       <c r="T5">
-        <v>0.004481689725032157</v>
+        <v>0.0005585557046864776</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H6">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I6">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J6">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.6111186869512</v>
+        <v>16.20207433333333</v>
       </c>
       <c r="N6">
-        <v>14.6111186869512</v>
+        <v>48.606223</v>
       </c>
       <c r="O6">
-        <v>0.1452337203725286</v>
+        <v>0.1579285380120706</v>
       </c>
       <c r="P6">
-        <v>0.1452337203725286</v>
+        <v>0.1579285380120706</v>
       </c>
       <c r="Q6">
-        <v>107.444847679052</v>
+        <v>14.41486131846344</v>
       </c>
       <c r="R6">
-        <v>107.444847679052</v>
+        <v>129.733751866171</v>
       </c>
       <c r="S6">
-        <v>0.1257374823906683</v>
+        <v>0.01472960459592784</v>
       </c>
       <c r="T6">
-        <v>0.1257374823906683</v>
+        <v>0.01472960459592784</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H7">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I7">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J7">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.981008402036879</v>
+        <v>10.25548833333333</v>
       </c>
       <c r="N7">
-        <v>9.981008402036879</v>
+        <v>30.766465</v>
       </c>
       <c r="O7">
-        <v>0.09921067745427756</v>
+        <v>0.09996462463766297</v>
       </c>
       <c r="P7">
-        <v>0.09921067745427756</v>
+        <v>0.09996462463766294</v>
       </c>
       <c r="Q7">
-        <v>2.767841290630127</v>
+        <v>76.08116063990002</v>
       </c>
       <c r="R7">
-        <v>2.767841290630127</v>
+        <v>684.7304457591001</v>
       </c>
       <c r="S7">
-        <v>0.00323907011884221</v>
+        <v>0.07774236523452389</v>
       </c>
       <c r="T7">
-        <v>0.00323907011884221</v>
+        <v>0.07774236523452387</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H8">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I8">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J8">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>74.6272523368922</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N8">
-        <v>74.6272523368922</v>
+        <v>223.948188</v>
       </c>
       <c r="O8">
-        <v>0.741790805364261</v>
+        <v>0.7276395436298834</v>
       </c>
       <c r="P8">
-        <v>0.741790805364261</v>
+        <v>0.7276395436298831</v>
       </c>
       <c r="Q8">
-        <v>20.69494204435003</v>
+        <v>553.7925161776802</v>
       </c>
       <c r="R8">
-        <v>20.69494204435003</v>
+        <v>4984.132645599121</v>
       </c>
       <c r="S8">
-        <v>0.02421828470221458</v>
+        <v>0.5658843752477193</v>
       </c>
       <c r="T8">
-        <v>0.02421828470221458</v>
+        <v>0.5658843752477192</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H9">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I9">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J9">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.86400860188169</v>
+        <v>0.869824</v>
       </c>
       <c r="N9">
-        <v>0.86400860188169</v>
+        <v>2.609472</v>
       </c>
       <c r="O9">
-        <v>0.008588198232706882</v>
+        <v>0.008478546007235204</v>
       </c>
       <c r="P9">
-        <v>0.008588198232706882</v>
+        <v>0.008478546007235202</v>
       </c>
       <c r="Q9">
-        <v>0.2395989049823578</v>
+        <v>6.452858929920001</v>
       </c>
       <c r="R9">
-        <v>0.2395989049823578</v>
+        <v>58.07573036928002</v>
       </c>
       <c r="S9">
-        <v>0.0002803909517004809</v>
+        <v>0.006593754768162788</v>
       </c>
       <c r="T9">
-        <v>0.0002803909517004809</v>
+        <v>0.006593754768162786</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H10">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I10">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J10">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.520787431444503</v>
+        <v>0.6143926666666666</v>
       </c>
       <c r="N10">
-        <v>0.520787431444503</v>
+        <v>1.843178</v>
       </c>
       <c r="O10">
-        <v>0.005176598576225841</v>
+        <v>0.005988747713148011</v>
       </c>
       <c r="P10">
-        <v>0.005176598576225841</v>
+        <v>0.005988747713148009</v>
       </c>
       <c r="Q10">
-        <v>0.1444199722444013</v>
+        <v>4.55792114908</v>
       </c>
       <c r="R10">
-        <v>0.1444199722444013</v>
+        <v>41.02129034172</v>
       </c>
       <c r="S10">
-        <v>0.0001690076733244936</v>
+        <v>0.004657441707009215</v>
       </c>
       <c r="T10">
-        <v>0.0001690076733244936</v>
+        <v>0.004657441707009213</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H11">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I11">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J11">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.6111186869512</v>
+        <v>16.20207433333333</v>
       </c>
       <c r="N11">
-        <v>14.6111186869512</v>
+        <v>48.606223</v>
       </c>
       <c r="O11">
-        <v>0.1452337203725286</v>
+        <v>0.1579285380120706</v>
       </c>
       <c r="P11">
-        <v>0.1452337203725286</v>
+        <v>0.1579285380120706</v>
       </c>
       <c r="Q11">
-        <v>4.051820815598943</v>
+        <v>120.19638460778</v>
       </c>
       <c r="R11">
-        <v>4.051820815598943</v>
+        <v>1081.76746147002</v>
       </c>
       <c r="S11">
-        <v>0.004741648943217249</v>
+        <v>0.1228208291442229</v>
       </c>
       <c r="T11">
-        <v>0.004741648943217249</v>
+        <v>0.1228208291442229</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H12">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I12">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J12">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.981008402036879</v>
+        <v>10.25548833333333</v>
       </c>
       <c r="N12">
-        <v>9.981008402036879</v>
+        <v>30.766465</v>
       </c>
       <c r="O12">
-        <v>0.09921067745427756</v>
+        <v>0.09996462463766297</v>
       </c>
       <c r="P12">
-        <v>0.09921067745427756</v>
+        <v>0.09996462463766294</v>
       </c>
       <c r="Q12">
-        <v>8.61269175691568</v>
+        <v>3.060371040015</v>
       </c>
       <c r="R12">
-        <v>8.61269175691568</v>
+        <v>27.543339360135</v>
       </c>
       <c r="S12">
-        <v>0.01007901450385298</v>
+        <v>0.003127193133555205</v>
       </c>
       <c r="T12">
-        <v>0.01007901450385298</v>
+        <v>0.003127193133555205</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H13">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I13">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J13">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>74.6272523368922</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N13">
-        <v>74.6272523368922</v>
+        <v>223.948188</v>
       </c>
       <c r="O13">
-        <v>0.741790805364261</v>
+        <v>0.7276395436298834</v>
       </c>
       <c r="P13">
-        <v>0.741790805364261</v>
+        <v>0.7276395436298831</v>
       </c>
       <c r="Q13">
-        <v>64.39645125557153</v>
+        <v>22.276350208548</v>
       </c>
       <c r="R13">
-        <v>64.39645125557153</v>
+        <v>200.487151876932</v>
       </c>
       <c r="S13">
-        <v>0.07536003662042133</v>
+        <v>0.02276274624938972</v>
       </c>
       <c r="T13">
-        <v>0.07536003662042133</v>
+        <v>0.02276274624938972</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H14">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I14">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J14">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.86400860188169</v>
+        <v>0.869824</v>
       </c>
       <c r="N14">
-        <v>0.86400860188169</v>
+        <v>2.609472</v>
       </c>
       <c r="O14">
-        <v>0.008588198232706882</v>
+        <v>0.008478546007235204</v>
       </c>
       <c r="P14">
-        <v>0.008588198232706882</v>
+        <v>0.008478546007235202</v>
       </c>
       <c r="Q14">
-        <v>0.7455599137469976</v>
+        <v>0.259566789312</v>
       </c>
       <c r="R14">
-        <v>0.7455599137469976</v>
+        <v>2.336101103808</v>
       </c>
       <c r="S14">
-        <v>0.0008724925257093385</v>
+        <v>0.000265234336171041</v>
       </c>
       <c r="T14">
-        <v>0.0008724925257093385</v>
+        <v>0.000265234336171041</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H15">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I15">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J15">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.520787431444503</v>
+        <v>0.6143926666666666</v>
       </c>
       <c r="N15">
-        <v>0.520787431444503</v>
+        <v>1.843178</v>
       </c>
       <c r="O15">
-        <v>0.005176598576225841</v>
+        <v>0.005988747713148011</v>
       </c>
       <c r="P15">
-        <v>0.005176598576225841</v>
+        <v>0.005988747713148009</v>
       </c>
       <c r="Q15">
-        <v>0.4493916283040103</v>
+        <v>0.183342758838</v>
       </c>
       <c r="R15">
-        <v>0.4493916283040103</v>
+        <v>1.650084829542</v>
       </c>
       <c r="S15">
-        <v>0.0005259011778691906</v>
+        <v>0.0001873459815913208</v>
       </c>
       <c r="T15">
-        <v>0.0005259011778691906</v>
+        <v>0.0001873459815913208</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.298413</v>
+      </c>
+      <c r="H16">
+        <v>0.895239</v>
+      </c>
+      <c r="I16">
+        <v>0.031282997809377</v>
+      </c>
+      <c r="J16">
+        <v>0.03128299780937701</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>16.20207433333333</v>
+      </c>
+      <c r="N16">
+        <v>48.606223</v>
+      </c>
+      <c r="O16">
+        <v>0.1579285380120706</v>
+      </c>
+      <c r="P16">
+        <v>0.1579285380120706</v>
+      </c>
+      <c r="Q16">
+        <v>4.834909608033</v>
+      </c>
+      <c r="R16">
+        <v>43.514186472297</v>
+      </c>
+      <c r="S16">
+        <v>0.004940478108669717</v>
+      </c>
+      <c r="T16">
+        <v>0.004940478108669717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H17">
+        <v>2.797374</v>
+      </c>
+      <c r="I17">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J17">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.25548833333333</v>
+      </c>
+      <c r="N17">
+        <v>30.766465</v>
+      </c>
+      <c r="O17">
+        <v>0.09996462463766297</v>
+      </c>
+      <c r="P17">
+        <v>0.09996462463766294</v>
+      </c>
+      <c r="Q17">
+        <v>9.562812140323334</v>
+      </c>
+      <c r="R17">
+        <v>86.06530926291002</v>
+      </c>
+      <c r="S17">
+        <v>0.009771612680843731</v>
+      </c>
+      <c r="T17">
+        <v>0.009771612680843728</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H18">
+        <v>2.797374</v>
+      </c>
+      <c r="I18">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J18">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>74.64939600000001</v>
+      </c>
+      <c r="N18">
+        <v>223.948188</v>
+      </c>
+      <c r="O18">
+        <v>0.7276395436298834</v>
+      </c>
+      <c r="P18">
+        <v>0.7276395436298831</v>
+      </c>
+      <c r="Q18">
+        <v>69.60742649536802</v>
+      </c>
+      <c r="R18">
+        <v>626.4668384583122</v>
+      </c>
+      <c r="S18">
+        <v>0.07112727944899669</v>
+      </c>
+      <c r="T18">
+        <v>0.07112727944899667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.862907975827176</v>
-      </c>
-      <c r="H16">
-        <v>0.862907975827176</v>
-      </c>
-      <c r="I16">
-        <v>0.101592033866496</v>
-      </c>
-      <c r="J16">
-        <v>0.101592033866496</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>14.6111186869512</v>
-      </c>
-      <c r="N16">
-        <v>14.6111186869512</v>
-      </c>
-      <c r="O16">
-        <v>0.1452337203725286</v>
-      </c>
-      <c r="P16">
-        <v>0.1452337203725286</v>
-      </c>
-      <c r="Q16">
-        <v>12.60805085072769</v>
-      </c>
-      <c r="R16">
-        <v>12.60805085072769</v>
-      </c>
-      <c r="S16">
-        <v>0.01475458903864314</v>
-      </c>
-      <c r="T16">
-        <v>0.01475458903864314</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H19">
+        <v>2.797374</v>
+      </c>
+      <c r="I19">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J19">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.869824</v>
+      </c>
+      <c r="N19">
+        <v>2.609472</v>
+      </c>
+      <c r="O19">
+        <v>0.008478546007235204</v>
+      </c>
+      <c r="P19">
+        <v>0.008478546007235202</v>
+      </c>
+      <c r="Q19">
+        <v>0.8110743473920001</v>
+      </c>
+      <c r="R19">
+        <v>7.299669126528002</v>
+      </c>
+      <c r="S19">
+        <v>0.0008287838620883696</v>
+      </c>
+      <c r="T19">
+        <v>0.0008287838620883695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H20">
+        <v>2.797374</v>
+      </c>
+      <c r="I20">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J20">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.6143926666666666</v>
+      </c>
+      <c r="N20">
+        <v>1.843178</v>
+      </c>
+      <c r="O20">
+        <v>0.005988747713148011</v>
+      </c>
+      <c r="P20">
+        <v>0.005988747713148009</v>
+      </c>
+      <c r="Q20">
+        <v>0.5728953571746667</v>
+      </c>
+      <c r="R20">
+        <v>5.156058214572</v>
+      </c>
+      <c r="S20">
+        <v>0.0005854043198609975</v>
+      </c>
+      <c r="T20">
+        <v>0.0005854043198609973</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H21">
+        <v>2.797374</v>
+      </c>
+      <c r="I21">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J21">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>16.20207433333333</v>
+      </c>
+      <c r="N21">
+        <v>48.606223</v>
+      </c>
+      <c r="O21">
+        <v>0.1579285380120706</v>
+      </c>
+      <c r="P21">
+        <v>0.1579285380120706</v>
+      </c>
+      <c r="Q21">
+        <v>15.10775382871133</v>
+      </c>
+      <c r="R21">
+        <v>135.969784458402</v>
+      </c>
+      <c r="S21">
+        <v>0.01543762616325009</v>
+      </c>
+      <c r="T21">
+        <v>0.01543762616325009</v>
       </c>
     </row>
   </sheetData>
